--- a/Code/Results/Cases/Case_4_215/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_215/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7817513702114525</v>
+        <v>0.3347771808043092</v>
       </c>
       <c r="C2">
-        <v>0.1452218568122419</v>
+        <v>0.06664622201573422</v>
       </c>
       <c r="D2">
-        <v>0.4234291126767999</v>
+        <v>0.6286083549714903</v>
       </c>
       <c r="E2">
-        <v>0.1507345253463619</v>
+        <v>0.2437140734033925</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008302576304622008</v>
+        <v>0.0025156388566126</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5573064572788198</v>
+        <v>1.09418501108447</v>
       </c>
       <c r="J2">
-        <v>0.06377021939266214</v>
+        <v>0.1173822175759014</v>
       </c>
       <c r="K2">
-        <v>0.8872431365417413</v>
+        <v>0.3860263727944755</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3698846359591599</v>
+        <v>0.3173841013454535</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.911695975388483</v>
+        <v>5.486096691256932</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6787784985352516</v>
+        <v>0.3055954685944187</v>
       </c>
       <c r="C3">
-        <v>0.1259636710643406</v>
+        <v>0.06140566285115767</v>
       </c>
       <c r="D3">
-        <v>0.3896595611261944</v>
+        <v>0.6233357810502014</v>
       </c>
       <c r="E3">
-        <v>0.1402398350550875</v>
+        <v>0.2423824831198758</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008347024059300536</v>
+        <v>0.002518513636595854</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5581202637129934</v>
+        <v>1.100388261393931</v>
       </c>
       <c r="J3">
-        <v>0.06052956126432463</v>
+        <v>0.1172214461334704</v>
       </c>
       <c r="K3">
-        <v>0.7701882694652795</v>
+        <v>0.3531534470905342</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3249365406573332</v>
+        <v>0.3066533222910621</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.863902683635473</v>
+        <v>5.505245606221024</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6157415114243179</v>
+        <v>0.2877671563255149</v>
       </c>
       <c r="C4">
-        <v>0.1141978640505386</v>
+        <v>0.0582083442036776</v>
       </c>
       <c r="D4">
-        <v>0.36944026695258</v>
+        <v>0.6203888416040968</v>
       </c>
       <c r="E4">
-        <v>0.1339907897815742</v>
+        <v>0.2416745891890528</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008375208566301562</v>
+        <v>0.002520373451876947</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5595513887303234</v>
+        <v>1.104666085569491</v>
       </c>
       <c r="J4">
-        <v>0.05862864940788981</v>
+        <v>0.1171727427703217</v>
       </c>
       <c r="K4">
-        <v>0.6985610969348954</v>
+        <v>0.3330760061856068</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2976132239719576</v>
+        <v>0.3002129441424799</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.839456592967991</v>
+        <v>5.519472982738193</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5900896648726359</v>
+        <v>0.2805248495409103</v>
       </c>
       <c r="C5">
-        <v>0.1094151843046944</v>
+        <v>0.05691058680129402</v>
       </c>
       <c r="D5">
-        <v>0.3613223181026228</v>
+        <v>0.6192610937940231</v>
       </c>
       <c r="E5">
-        <v>0.1314903724581278</v>
+        <v>0.2414137395966272</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008386923055201347</v>
+        <v>0.002521155223481065</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5603597558424731</v>
+        <v>1.106527280031329</v>
       </c>
       <c r="J5">
-        <v>0.05787518103992895</v>
+        <v>0.1171654818358618</v>
       </c>
       <c r="K5">
-        <v>0.6694203949782036</v>
+        <v>0.3249215231173679</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2865408787518291</v>
+        <v>0.29762589207904</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.830672404041223</v>
+        <v>5.525891935545218</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5858320683277611</v>
+        <v>0.2793236634665277</v>
       </c>
       <c r="C6">
-        <v>0.1086216689769088</v>
+        <v>0.05669540911299009</v>
       </c>
       <c r="D6">
-        <v>0.3599814558109813</v>
+        <v>0.6190782539890165</v>
       </c>
       <c r="E6">
-        <v>0.1310778851713579</v>
+        <v>0.2413720951420295</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008388882198322654</v>
+        <v>0.002521286480664425</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5605073288417373</v>
+        <v>1.106843453979831</v>
       </c>
       <c r="J6">
-        <v>0.05775131351449403</v>
+        <v>0.1171650366404577</v>
       </c>
       <c r="K6">
-        <v>0.6645841161878536</v>
+        <v>0.3235691347304623</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2847058788935897</v>
+        <v>0.2971985805532853</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.829283403207342</v>
+        <v>5.526995319019136</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6153954292898902</v>
+        <v>0.2876693908889081</v>
       </c>
       <c r="C7">
-        <v>0.1141333182248871</v>
+        <v>0.05819082117618279</v>
       </c>
       <c r="D7">
-        <v>0.3693303034667679</v>
+        <v>0.620373336044679</v>
       </c>
       <c r="E7">
-        <v>0.133956885197307</v>
+        <v>0.2416709593878288</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008375365618507715</v>
+        <v>0.002520383898278869</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5595613905480334</v>
+        <v>1.104690708715317</v>
       </c>
       <c r="J7">
-        <v>0.05861840366827309</v>
+        <v>0.1171725938723043</v>
       </c>
       <c r="K7">
-        <v>0.6981679185377914</v>
+        <v>0.3329659211415645</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.297463655891292</v>
+        <v>0.300177902406503</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.839333426943057</v>
+        <v>5.519557035701581</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7462001473897431</v>
+        <v>0.3246970065718529</v>
       </c>
       <c r="C8">
-        <v>0.1385676850452029</v>
+        <v>0.06483506696672237</v>
       </c>
       <c r="D8">
-        <v>0.4116734449134896</v>
+        <v>0.6267301588840581</v>
       </c>
       <c r="E8">
-        <v>0.1470737725718578</v>
+        <v>0.2432321917773734</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008317719192280082</v>
+        <v>0.002516610471490993</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5573881407129591</v>
+        <v>1.096226556442954</v>
       </c>
       <c r="J8">
-        <v>0.06263366679456439</v>
+        <v>0.117316409730325</v>
       </c>
       <c r="K8">
-        <v>0.8468232668130327</v>
+        <v>0.3746698863588733</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3543250942268585</v>
+        <v>0.3136534198836145</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.894166504060337</v>
+        <v>5.492186677075978</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.00475833220446</v>
+        <v>0.39800346823165</v>
       </c>
       <c r="C9">
-        <v>0.1870874700517078</v>
+        <v>0.07802507391470215</v>
       </c>
       <c r="D9">
-        <v>0.4991849423684585</v>
+        <v>0.6414964871345319</v>
       </c>
       <c r="E9">
-        <v>0.1744788483903363</v>
+        <v>0.2471630979188717</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008211551796086579</v>
+        <v>0.002509958822926052</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5609503469777337</v>
+        <v>1.083349599265802</v>
       </c>
       <c r="J9">
-        <v>0.07126954520989415</v>
+        <v>0.1179949327673668</v>
       </c>
       <c r="K9">
-        <v>1.140950982807823</v>
+        <v>0.4572837572846709</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4683546041690292</v>
+        <v>0.3412512985656946</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.043168296354253</v>
+        <v>5.458109548560685</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.196810885307258</v>
+        <v>0.4522728828555103</v>
       </c>
       <c r="C10">
-        <v>0.2233119935311976</v>
+        <v>0.08781308872950433</v>
       </c>
       <c r="D10">
-        <v>0.566789324933012</v>
+        <v>0.6537445753925795</v>
       </c>
       <c r="E10">
-        <v>0.1958454515265657</v>
+        <v>0.2505802004982556</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008137429388330781</v>
+        <v>0.002505523277153952</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5689804064843642</v>
+        <v>1.076157902206148</v>
       </c>
       <c r="J10">
-        <v>0.07816385920141755</v>
+        <v>0.1187349525521526</v>
       </c>
       <c r="K10">
-        <v>1.359659991112181</v>
+        <v>0.5184755319343139</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5541873996478444</v>
+        <v>0.3622382979974432</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.181796368328548</v>
+        <v>5.445023366289007</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.284837367955902</v>
+        <v>0.4770483869478426</v>
       </c>
       <c r="C11">
-        <v>0.2399675453989261</v>
+        <v>0.09228697978296907</v>
       </c>
       <c r="D11">
-        <v>0.5984024745076226</v>
+        <v>0.6596198314249477</v>
       </c>
       <c r="E11">
-        <v>0.2058827786039714</v>
+        <v>0.2522494633514967</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000810447720804768</v>
+        <v>0.002503602475840044</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5739633525969907</v>
+        <v>1.073379061192711</v>
       </c>
       <c r="J11">
-        <v>0.08144006344545573</v>
+        <v>0.119124019732233</v>
       </c>
       <c r="K11">
-        <v>1.459970512098096</v>
+        <v>0.5464186644987876</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5938057873116165</v>
+        <v>0.3719395156033372</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.252124566302456</v>
+        <v>5.441666332340816</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.318283731549172</v>
+        <v>0.4864425698397099</v>
       </c>
       <c r="C12">
-        <v>0.2463045602679301</v>
+        <v>0.0939841566910502</v>
       </c>
       <c r="D12">
-        <v>0.6105096392543032</v>
+        <v>0.6618881991916226</v>
       </c>
       <c r="E12">
-        <v>0.2097337615971924</v>
+        <v>0.2528980536307159</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008092102763612039</v>
+        <v>0.002502888985733381</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.576055515965173</v>
+        <v>1.072397644239452</v>
       </c>
       <c r="J12">
-        <v>0.08270264460733756</v>
+        <v>0.1192788822088531</v>
       </c>
       <c r="K12">
-        <v>1.498095161858089</v>
+        <v>0.5570150206284552</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6089016926713882</v>
+        <v>0.3756351675509322</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.279885086369461</v>
+        <v>5.440768430896071</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.311075153038331</v>
+        <v>0.4844188270106713</v>
       </c>
       <c r="C13">
-        <v>0.2449383644585623</v>
+        <v>0.09361850609781186</v>
       </c>
       <c r="D13">
-        <v>0.6078958913452368</v>
+        <v>0.6613977311325527</v>
       </c>
       <c r="E13">
-        <v>0.2089020830557047</v>
+        <v>0.2527576358179715</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000809476331094453</v>
+        <v>0.00250304203255807</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5755955692455075</v>
+        <v>1.072605857656022</v>
       </c>
       <c r="J13">
-        <v>0.08242971806588173</v>
+        <v>0.1192451949790367</v>
       </c>
       <c r="K13">
-        <v>1.48987778277953</v>
+        <v>0.5547322501730889</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6056461870473058</v>
+        <v>0.3748382662296734</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.273854751164805</v>
+        <v>5.44094520519991</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.287586656869053</v>
+        <v>0.477821009220861</v>
       </c>
       <c r="C14">
-        <v>0.2404882687173284</v>
+        <v>0.09242654746583412</v>
       </c>
       <c r="D14">
-        <v>0.5993957394345841</v>
+        <v>0.6598055795286086</v>
       </c>
       <c r="E14">
-        <v>0.2061985714707077</v>
+        <v>0.2523024932314897</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000810345711212191</v>
+        <v>0.002503543498830632</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5741312790816266</v>
+        <v>1.073296898974235</v>
       </c>
       <c r="J14">
-        <v>0.08154348577178894</v>
+        <v>0.119136609470786</v>
       </c>
       <c r="K14">
-        <v>1.463104130132791</v>
+        <v>0.5472901370426371</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5950458012478492</v>
+        <v>0.3722431188399398</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.254385314231598</v>
+        <v>5.441584979024753</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.273214491498919</v>
+        <v>0.4737812362927514</v>
       </c>
       <c r="C15">
-        <v>0.237766492703102</v>
+        <v>0.09169682915839417</v>
       </c>
       <c r="D15">
-        <v>0.5942072385517747</v>
+        <v>0.6588360070042825</v>
       </c>
       <c r="E15">
-        <v>0.204549249022385</v>
+        <v>0.2520258500475592</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008108795641362527</v>
+        <v>0.002503852466563915</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5732615194181179</v>
+        <v>1.073729411690685</v>
       </c>
       <c r="J15">
-        <v>0.08100355870950438</v>
+        <v>0.1190710782577895</v>
       </c>
       <c r="K15">
-        <v>1.446723295020803</v>
+        <v>0.5427335549401278</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5885652464534772</v>
+        <v>0.3706563781661103</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.242609325325731</v>
+        <v>5.442025479402446</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.191072919471537</v>
+        <v>0.45065548107155</v>
       </c>
       <c r="C16">
-        <v>0.2222274476476969</v>
+        <v>0.08752113342842449</v>
       </c>
       <c r="D16">
-        <v>0.5647416618915599</v>
+        <v>0.653366711935405</v>
       </c>
       <c r="E16">
-        <v>0.1951962470703208</v>
+        <v>0.2504734176702286</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008139597778066056</v>
+        <v>0.002505650751256638</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5686826927953419</v>
+        <v>1.076349422087056</v>
       </c>
       <c r="J16">
-        <v>0.0779527207589652</v>
+        <v>0.1187105804089796</v>
       </c>
       <c r="K16">
-        <v>1.353122735999136</v>
+        <v>0.5166514913895242</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5516106830033749</v>
+        <v>0.3616073890399321</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.177353486673184</v>
+        <v>5.445294996779438</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.140863078344296</v>
+        <v>0.4364908323653935</v>
       </c>
       <c r="C17">
-        <v>0.2127431154227963</v>
+        <v>0.08496489406843466</v>
       </c>
       <c r="D17">
-        <v>0.5468941317279246</v>
+        <v>0.650089139944356</v>
       </c>
       <c r="E17">
-        <v>0.1895428417348199</v>
+        <v>0.2495504322113504</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008158685797446613</v>
+        <v>0.002506778725178793</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5662239900235733</v>
+        <v>1.078082919852264</v>
       </c>
       <c r="J17">
-        <v>0.07611823111990645</v>
+        <v>0.1185028491528612</v>
       </c>
       <c r="K17">
-        <v>1.29592627581826</v>
+        <v>0.5006779993445321</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5290944324228164</v>
+        <v>0.3560954945872936</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.139239741379868</v>
+        <v>5.447965650730112</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.112044769184763</v>
+        <v>0.4283520165797086</v>
       </c>
       <c r="C18">
-        <v>0.2073043323335924</v>
+        <v>0.08349661803757158</v>
       </c>
       <c r="D18">
-        <v>0.5367088184272859</v>
+        <v>0.6482325445047081</v>
       </c>
       <c r="E18">
-        <v>0.1863207589999121</v>
+        <v>0.2490303633720998</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008169737273157998</v>
+        <v>0.002507436635486251</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5649340998519818</v>
+        <v>1.07912635573971</v>
       </c>
       <c r="J18">
-        <v>0.07507613583084805</v>
+        <v>0.1183883029177579</v>
       </c>
       <c r="K18">
-        <v>1.263104057414751</v>
+        <v>0.4915005374843702</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5161968737717899</v>
+        <v>0.3529397148223836</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.117996192152134</v>
+        <v>5.449746079381839</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.102297358217044</v>
+        <v>0.4255977946661176</v>
       </c>
       <c r="C19">
-        <v>0.205465531931452</v>
+        <v>0.08299983086459406</v>
       </c>
       <c r="D19">
-        <v>0.5332736451631774</v>
+        <v>0.6476088448041253</v>
       </c>
       <c r="E19">
-        <v>0.1852347734765303</v>
+        <v>0.2488561342653952</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008173491761024383</v>
+        <v>0.002507660962437693</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5645183039084074</v>
+        <v>1.079487609336468</v>
       </c>
       <c r="J19">
-        <v>0.07472548899001197</v>
+        <v>0.1183503674151893</v>
       </c>
       <c r="K19">
-        <v>1.252003387716996</v>
+        <v>0.4883949493662385</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5118387985627137</v>
+        <v>0.3518737198119339</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.110917566401582</v>
+        <v>5.450390866175042</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.146201558601263</v>
+        <v>0.4379978258835422</v>
       </c>
       <c r="C20">
-        <v>0.2137510148827033</v>
+        <v>0.08523680292408642</v>
       </c>
       <c r="D20">
-        <v>0.5487856538754272</v>
+        <v>0.6504350862551007</v>
       </c>
       <c r="E20">
-        <v>0.1901415614239568</v>
+        <v>0.2496475672375595</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008156646381198594</v>
+        <v>0.002506657706036672</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5664727617379057</v>
+        <v>1.07789358638955</v>
       </c>
       <c r="J20">
-        <v>0.07631215177272566</v>
+        <v>0.1185244517740784</v>
       </c>
       <c r="K20">
-        <v>1.302006954514866</v>
+        <v>0.5023773660303732</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5314857439351499</v>
+        <v>0.3566807438970869</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.143226208251804</v>
+        <v>5.44765606656145</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.294482592944973</v>
+        <v>0.4797586195258248</v>
       </c>
       <c r="C21">
-        <v>0.2417945200235039</v>
+        <v>0.09277657325726807</v>
       </c>
       <c r="D21">
-        <v>0.6018886472571126</v>
+        <v>0.6602720523968912</v>
       </c>
       <c r="E21">
-        <v>0.2069912628099786</v>
+        <v>0.2524357327267737</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008100900767653453</v>
+        <v>0.002503395829970578</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5745556899124722</v>
+        <v>1.073091999836635</v>
       </c>
       <c r="J21">
-        <v>0.08180318255440255</v>
+        <v>0.1191682993359962</v>
       </c>
       <c r="K21">
-        <v>1.470964242099399</v>
+        <v>0.5494756652558408</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5981567683442393</v>
+        <v>0.3730047803602119</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.260072623247737</v>
+        <v>5.441386929411664</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.392058618541796</v>
+        <v>0.5071228427804613</v>
       </c>
       <c r="C22">
-        <v>0.2602993286097046</v>
+        <v>0.09772178026059919</v>
       </c>
       <c r="D22">
-        <v>0.6373933870756616</v>
+        <v>0.666954786317433</v>
       </c>
       <c r="E22">
-        <v>0.2182976312140852</v>
+        <v>0.2543539837582571</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000806506969896321</v>
+        <v>0.002501344853788459</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5810418791738741</v>
+        <v>1.070366978768874</v>
       </c>
       <c r="J22">
-        <v>0.08552080827865183</v>
+        <v>0.1196329847597468</v>
       </c>
       <c r="K22">
-        <v>1.582210416594052</v>
+        <v>0.5803437607908393</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6422795739311198</v>
+        <v>0.3838017109604053</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.343061658646633</v>
+        <v>5.439465785360142</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.339913339603982</v>
+        <v>0.4925116742747946</v>
       </c>
       <c r="C23">
-        <v>0.2504052050427106</v>
+        <v>0.09508084177537057</v>
       </c>
       <c r="D23">
-        <v>0.6183664088983392</v>
+        <v>0.6633649083622402</v>
       </c>
       <c r="E23">
-        <v>0.2122347520836385</v>
+        <v>0.2533214015403971</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008084140569102377</v>
+        <v>0.002502432122132683</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5774650470213416</v>
+        <v>1.071783568898773</v>
       </c>
       <c r="J23">
-        <v>0.08352420200235144</v>
+        <v>0.1193809597332205</v>
       </c>
       <c r="K23">
-        <v>1.522753381774351</v>
+        <v>0.5638610961230768</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6186762822289467</v>
+        <v>0.378027502949088</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.298133312444463</v>
+        <v>5.440292008595691</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.143787883491143</v>
+        <v>0.4373164996625292</v>
       </c>
       <c r="C24">
-        <v>0.2132953006202172</v>
+        <v>0.08511386875265714</v>
       </c>
       <c r="D24">
-        <v>0.5479302625637388</v>
+        <v>0.6502785975630161</v>
       </c>
       <c r="E24">
-        <v>0.1898707929459462</v>
+        <v>0.2496036195726887</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008157568159409626</v>
+        <v>0.002506712389513582</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5663599079446726</v>
+        <v>1.077979038189014</v>
       </c>
       <c r="J24">
-        <v>0.0762244412068398</v>
+        <v>0.1185146700240622</v>
       </c>
       <c r="K24">
-        <v>1.299257691938294</v>
+        <v>0.5016090639059314</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5304044853829595</v>
+        <v>0.3564161119252702</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.141421850462706</v>
+        <v>5.447795266282583</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9345089288694339</v>
+        <v>0.3780990086581255</v>
       </c>
       <c r="C25">
-        <v>0.1738763245480612</v>
+        <v>0.07443969394674355</v>
       </c>
       <c r="D25">
-        <v>0.4749739916388194</v>
+        <v>0.6372558443663081</v>
       </c>
       <c r="E25">
-        <v>0.1668644693709851</v>
+        <v>0.2460067093051315</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008239567915034423</v>
+        <v>0.002511678665681184</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5590853902349551</v>
+        <v>1.086434730374492</v>
       </c>
       <c r="J25">
-        <v>0.06884332553083539</v>
+        <v>0.1177689480038531</v>
       </c>
       <c r="K25">
-        <v>1.06100096064003</v>
+        <v>0.4348466552424668</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4371852553876749</v>
+        <v>0.333660230542975</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.998036038298295</v>
+        <v>5.465230015596035</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_215/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_215/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3347771808043092</v>
+        <v>0.7817513702113956</v>
       </c>
       <c r="C2">
-        <v>0.06664622201573422</v>
+        <v>0.1452218568121282</v>
       </c>
       <c r="D2">
-        <v>0.6286083549714903</v>
+        <v>0.4234291126767573</v>
       </c>
       <c r="E2">
-        <v>0.2437140734033925</v>
+        <v>0.1507345253463477</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0025156388566126</v>
+        <v>0.0008302576305445673</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.09418501108447</v>
+        <v>0.5573064572787985</v>
       </c>
       <c r="J2">
-        <v>0.1173822175759014</v>
+        <v>0.06377021939266925</v>
       </c>
       <c r="K2">
-        <v>0.3860263727944755</v>
+        <v>0.8872431365417413</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3173841013454535</v>
+        <v>0.3698846359591386</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.486096691256932</v>
+        <v>2.911695975388483</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3055954685944187</v>
+        <v>0.6787784985352232</v>
       </c>
       <c r="C3">
-        <v>0.06140566285115767</v>
+        <v>0.1259636710642269</v>
       </c>
       <c r="D3">
-        <v>0.6233357810502014</v>
+        <v>0.3896595611262086</v>
       </c>
       <c r="E3">
-        <v>0.2423824831198758</v>
+        <v>0.1402398350550804</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002518513636595854</v>
+        <v>0.0008347024059580249</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.100388261393931</v>
+        <v>0.5581202637130254</v>
       </c>
       <c r="J3">
-        <v>0.1172214461334704</v>
+        <v>0.06052956126436726</v>
       </c>
       <c r="K3">
-        <v>0.3531534470905342</v>
+        <v>0.7701882694652511</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3066533222910621</v>
+        <v>0.3249365406573261</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.505245606221024</v>
+        <v>2.863902683635445</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2877671563255149</v>
+        <v>0.6157415114244031</v>
       </c>
       <c r="C4">
-        <v>0.0582083442036776</v>
+        <v>0.1141978640507801</v>
       </c>
       <c r="D4">
-        <v>0.6203888416040968</v>
+        <v>0.36944026695258</v>
       </c>
       <c r="E4">
-        <v>0.2416745891890528</v>
+        <v>0.1339907897816133</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002520373451876947</v>
+        <v>0.0008375208566352729</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.104666085569491</v>
+        <v>0.5595513887303127</v>
       </c>
       <c r="J4">
-        <v>0.1171727427703217</v>
+        <v>0.05862864940785784</v>
       </c>
       <c r="K4">
-        <v>0.3330760061856068</v>
+        <v>0.6985610969348244</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3002129441424799</v>
+        <v>0.2976132239719718</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.519472982738193</v>
+        <v>2.839456592967963</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2805248495409103</v>
+        <v>0.5900896648726359</v>
       </c>
       <c r="C5">
-        <v>0.05691058680129402</v>
+        <v>0.1094151843044529</v>
       </c>
       <c r="D5">
-        <v>0.6192610937940231</v>
+        <v>0.3613223181026228</v>
       </c>
       <c r="E5">
-        <v>0.2414137395966272</v>
+        <v>0.1314903724581313</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002521155223481065</v>
+        <v>0.0008386923055193472</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.106527280031329</v>
+        <v>0.5603597558424802</v>
       </c>
       <c r="J5">
-        <v>0.1171654818358618</v>
+        <v>0.05787518103990053</v>
       </c>
       <c r="K5">
-        <v>0.3249215231173679</v>
+        <v>0.6694203949782036</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.29762589207904</v>
+        <v>0.2865408787518504</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.525891935545218</v>
+        <v>2.830672404041309</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2793236634665277</v>
+        <v>0.5858320683277896</v>
       </c>
       <c r="C6">
-        <v>0.05669540911299009</v>
+        <v>0.1086216689768946</v>
       </c>
       <c r="D6">
-        <v>0.6190782539890165</v>
+        <v>0.359981455810626</v>
       </c>
       <c r="E6">
-        <v>0.2413720951420295</v>
+        <v>0.1310778851713579</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002521286480664425</v>
+        <v>0.0008388882197129521</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.106843453979831</v>
+        <v>0.5605073288417231</v>
       </c>
       <c r="J6">
-        <v>0.1171650366404577</v>
+        <v>0.05775131351455443</v>
       </c>
       <c r="K6">
-        <v>0.3235691347304623</v>
+        <v>0.6645841161878963</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2971985805532853</v>
+        <v>0.2847058788935612</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.526995319019136</v>
+        <v>2.829283403207313</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2876693908889081</v>
+        <v>0.6153954292899186</v>
       </c>
       <c r="C7">
-        <v>0.05819082117618279</v>
+        <v>0.1141333182247735</v>
       </c>
       <c r="D7">
-        <v>0.620373336044679</v>
+        <v>0.3693303034665973</v>
       </c>
       <c r="E7">
-        <v>0.2416709593878288</v>
+        <v>0.1339568851973176</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002520383898278869</v>
+        <v>0.0008375365619035373</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.104690708715317</v>
+        <v>0.5595613905480121</v>
       </c>
       <c r="J7">
-        <v>0.1171725938723043</v>
+        <v>0.05861840366827309</v>
       </c>
       <c r="K7">
-        <v>0.3329659211415645</v>
+        <v>0.6981679185377629</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.300177902406503</v>
+        <v>0.2974636558912849</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.519557035701581</v>
+        <v>2.839333426943114</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3246970065718529</v>
+        <v>0.7462001473897431</v>
       </c>
       <c r="C8">
-        <v>0.06483506696672237</v>
+        <v>0.1385676850453024</v>
       </c>
       <c r="D8">
-        <v>0.6267301588840581</v>
+        <v>0.4116734449134896</v>
       </c>
       <c r="E8">
-        <v>0.2432321917773734</v>
+        <v>0.1470737725718543</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002516610471490993</v>
+        <v>0.0008317719192306619</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.096226556442954</v>
+        <v>0.5573881407129697</v>
       </c>
       <c r="J8">
-        <v>0.117316409730325</v>
+        <v>0.0626336667945111</v>
       </c>
       <c r="K8">
-        <v>0.3746698863588733</v>
+        <v>0.8468232668130895</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3136534198836145</v>
+        <v>0.3543250942268585</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.492186677075978</v>
+        <v>2.894166504060308</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.39800346823165</v>
+        <v>1.004758332204375</v>
       </c>
       <c r="C9">
-        <v>0.07802507391470215</v>
+        <v>0.1870874700515941</v>
       </c>
       <c r="D9">
-        <v>0.6414964871345319</v>
+        <v>0.4991849423684016</v>
       </c>
       <c r="E9">
-        <v>0.2471630979188717</v>
+        <v>0.174478848390315</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002509958822926052</v>
+        <v>0.0008211551796073612</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.083349599265802</v>
+        <v>0.5609503469777195</v>
       </c>
       <c r="J9">
-        <v>0.1179949327673668</v>
+        <v>0.07126954520992257</v>
       </c>
       <c r="K9">
-        <v>0.4572837572846709</v>
+        <v>1.140950982807823</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3412512985656946</v>
+        <v>0.4683546041690363</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.458109548560685</v>
+        <v>3.043168296354224</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4522728828555103</v>
+        <v>1.196810885307457</v>
       </c>
       <c r="C10">
-        <v>0.08781308872950433</v>
+        <v>0.223311993530956</v>
       </c>
       <c r="D10">
-        <v>0.6537445753925795</v>
+        <v>0.5667893249331541</v>
       </c>
       <c r="E10">
-        <v>0.2505802004982556</v>
+        <v>0.1958454515265657</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002505523277153952</v>
+        <v>0.00081374293883224</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.076157902206148</v>
+        <v>0.5689804064843571</v>
       </c>
       <c r="J10">
-        <v>0.1187349525521526</v>
+        <v>0.07816385920152413</v>
       </c>
       <c r="K10">
-        <v>0.5184755319343139</v>
+        <v>1.359659991112295</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3622382979974432</v>
+        <v>0.5541873996478515</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.445023366289007</v>
+        <v>3.181796368328605</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4770483869478426</v>
+        <v>1.284837367955618</v>
       </c>
       <c r="C11">
-        <v>0.09228697978296907</v>
+        <v>0.239967545398585</v>
       </c>
       <c r="D11">
-        <v>0.6596198314249477</v>
+        <v>0.5984024745076226</v>
       </c>
       <c r="E11">
-        <v>0.2522494633514967</v>
+        <v>0.205882778603943</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002503602475840044</v>
+        <v>0.0008104477208037419</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.073379061192711</v>
+        <v>0.5739633525969907</v>
       </c>
       <c r="J11">
-        <v>0.119124019732233</v>
+        <v>0.08144006344548416</v>
       </c>
       <c r="K11">
-        <v>0.5464186644987876</v>
+        <v>1.459970512098096</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3719395156033372</v>
+        <v>0.5938057873116094</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.441666332340816</v>
+        <v>3.252124566302399</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4864425698397099</v>
+        <v>1.318283731549059</v>
       </c>
       <c r="C12">
-        <v>0.0939841566910502</v>
+        <v>0.2463045602679159</v>
       </c>
       <c r="D12">
-        <v>0.6618881991916226</v>
+        <v>0.610509639254559</v>
       </c>
       <c r="E12">
-        <v>0.2528980536307159</v>
+        <v>0.2097337615972066</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002502888985733381</v>
+        <v>0.0008092102763938404</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.072397644239452</v>
+        <v>0.5760555159651801</v>
       </c>
       <c r="J12">
-        <v>0.1192788822088531</v>
+        <v>0.08270264460728782</v>
       </c>
       <c r="K12">
-        <v>0.5570150206284552</v>
+        <v>1.498095161858174</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3756351675509322</v>
+        <v>0.6089016926714024</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.440768430896071</v>
+        <v>3.279885086369546</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4844188270106713</v>
+        <v>1.311075153038388</v>
       </c>
       <c r="C13">
-        <v>0.09361850609781186</v>
+        <v>0.2449383644586902</v>
       </c>
       <c r="D13">
-        <v>0.6613977311325527</v>
+        <v>0.6078958913451515</v>
       </c>
       <c r="E13">
-        <v>0.2527576358179715</v>
+        <v>0.2089020830556976</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00250304203255807</v>
+        <v>0.0008094763310322173</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.072605857656022</v>
+        <v>0.5755955692455075</v>
       </c>
       <c r="J13">
-        <v>0.1192451949790367</v>
+        <v>0.08242971806585331</v>
       </c>
       <c r="K13">
-        <v>0.5547322501730889</v>
+        <v>1.489877782779558</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3748382662296734</v>
+        <v>0.6056461870473058</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.44094520519991</v>
+        <v>3.273854751164748</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.477821009220861</v>
+        <v>1.28758665686928</v>
       </c>
       <c r="C14">
-        <v>0.09242654746583412</v>
+        <v>0.2404882687174421</v>
       </c>
       <c r="D14">
-        <v>0.6598055795286086</v>
+        <v>0.5993957394345557</v>
       </c>
       <c r="E14">
-        <v>0.2523024932314897</v>
+        <v>0.2061985714707077</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002503543498830632</v>
+        <v>0.000810345711210068</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.073296898974235</v>
+        <v>0.5741312790816124</v>
       </c>
       <c r="J14">
-        <v>0.119136609470786</v>
+        <v>0.08154348577181025</v>
       </c>
       <c r="K14">
-        <v>0.5472901370426371</v>
+        <v>1.463104130132763</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3722431188399398</v>
+        <v>0.5950458012478705</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.441584979024753</v>
+        <v>3.254385314231541</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4737812362927514</v>
+        <v>1.273214491498862</v>
       </c>
       <c r="C15">
-        <v>0.09169682915839417</v>
+        <v>0.2377664927030736</v>
       </c>
       <c r="D15">
-        <v>0.6588360070042825</v>
+        <v>0.5942072385518031</v>
       </c>
       <c r="E15">
-        <v>0.2520258500475592</v>
+        <v>0.2045492490223779</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002503852466563915</v>
+        <v>0.0008108795641658292</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.073729411690685</v>
+        <v>0.573261519418125</v>
       </c>
       <c r="J15">
-        <v>0.1190710782577895</v>
+        <v>0.0810035587095328</v>
       </c>
       <c r="K15">
-        <v>0.5427335549401278</v>
+        <v>1.446723295020888</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3706563781661103</v>
+        <v>0.5885652464534772</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.442025479402446</v>
+        <v>3.242609325325759</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.45065548107155</v>
+        <v>1.191072919471509</v>
       </c>
       <c r="C16">
-        <v>0.08752113342842449</v>
+        <v>0.222227447647569</v>
       </c>
       <c r="D16">
-        <v>0.653366711935405</v>
+        <v>0.5647416618915031</v>
       </c>
       <c r="E16">
-        <v>0.2504734176702286</v>
+        <v>0.195196247070335</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002505650751256638</v>
+        <v>0.0008139597778048293</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.076349422087056</v>
+        <v>0.568682692795349</v>
       </c>
       <c r="J16">
-        <v>0.1187105804089796</v>
+        <v>0.07795272075893678</v>
       </c>
       <c r="K16">
-        <v>0.5166514913895242</v>
+        <v>1.353122735999222</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3616073890399321</v>
+        <v>0.551610683003382</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.445294996779438</v>
+        <v>3.17735348667324</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4364908323653935</v>
+        <v>1.140863078344239</v>
       </c>
       <c r="C17">
-        <v>0.08496489406843466</v>
+        <v>0.2127431154228958</v>
       </c>
       <c r="D17">
-        <v>0.650089139944356</v>
+        <v>0.546894131727754</v>
       </c>
       <c r="E17">
-        <v>0.2495504322113504</v>
+        <v>0.1895428417348484</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002506778725178793</v>
+        <v>0.0008158685797732817</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.078082919852264</v>
+        <v>0.5662239900235733</v>
       </c>
       <c r="J17">
-        <v>0.1185028491528612</v>
+        <v>0.07611823111984961</v>
       </c>
       <c r="K17">
-        <v>0.5006779993445321</v>
+        <v>1.295926275818289</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3560954945872936</v>
+        <v>0.5290944324228235</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.447965650730112</v>
+        <v>3.139239741379953</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4283520165797086</v>
+        <v>1.112044769184877</v>
       </c>
       <c r="C18">
-        <v>0.08349661803757158</v>
+        <v>0.2073043323333508</v>
       </c>
       <c r="D18">
-        <v>0.6482325445047081</v>
+        <v>0.5367088184269733</v>
       </c>
       <c r="E18">
-        <v>0.2490303633720998</v>
+        <v>0.186320758999905</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002507436635486251</v>
+        <v>0.0008169737273457569</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.07912635573971</v>
+        <v>0.5649340998519676</v>
       </c>
       <c r="J18">
-        <v>0.1183883029177579</v>
+        <v>0.07507613583094752</v>
       </c>
       <c r="K18">
-        <v>0.4915005374843702</v>
+        <v>1.263104057414637</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3529397148223836</v>
+        <v>0.5161968737717828</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.449746079381839</v>
+        <v>3.117996192152049</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4255977946661176</v>
+        <v>1.102297358217186</v>
       </c>
       <c r="C19">
-        <v>0.08299983086459406</v>
+        <v>0.2054655319319068</v>
       </c>
       <c r="D19">
-        <v>0.6476088448041253</v>
+        <v>0.5332736451632059</v>
       </c>
       <c r="E19">
-        <v>0.2488561342653952</v>
+        <v>0.1852347734765303</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002507660962437693</v>
+        <v>0.0008173491761626383</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.079487609336468</v>
+        <v>0.5645183039084003</v>
       </c>
       <c r="J19">
-        <v>0.1183503674151893</v>
+        <v>0.07472548899006171</v>
       </c>
       <c r="K19">
-        <v>0.4883949493662385</v>
+        <v>1.252003387717195</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3518737198119339</v>
+        <v>0.5118387985627137</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.450390866175042</v>
+        <v>3.110917566401639</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4379978258835422</v>
+        <v>1.146201558601206</v>
       </c>
       <c r="C20">
-        <v>0.08523680292408642</v>
+        <v>0.2137510148829449</v>
       </c>
       <c r="D20">
-        <v>0.6504350862551007</v>
+        <v>0.5487856538754272</v>
       </c>
       <c r="E20">
-        <v>0.2496475672375595</v>
+        <v>0.1901415614239355</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002506657706036672</v>
+        <v>0.000815664638184283</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.07789358638955</v>
+        <v>0.5664727617379199</v>
       </c>
       <c r="J20">
-        <v>0.1185244517740784</v>
+        <v>0.07631215177273987</v>
       </c>
       <c r="K20">
-        <v>0.5023773660303732</v>
+        <v>1.302006954514923</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3566807438970869</v>
+        <v>0.531485743935157</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.44765606656145</v>
+        <v>3.14322620825186</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4797586195258248</v>
+        <v>1.294482592945059</v>
       </c>
       <c r="C21">
-        <v>0.09277657325726807</v>
+        <v>0.2417945200233618</v>
       </c>
       <c r="D21">
-        <v>0.6602720523968912</v>
+        <v>0.6018886472570273</v>
       </c>
       <c r="E21">
-        <v>0.2524357327267737</v>
+        <v>0.2069912628099502</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002503395829970578</v>
+        <v>0.0008100900767670517</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.073091999836635</v>
+        <v>0.5745556899124651</v>
       </c>
       <c r="J21">
-        <v>0.1191682993359962</v>
+        <v>0.0818031825544665</v>
       </c>
       <c r="K21">
-        <v>0.5494756652558408</v>
+        <v>1.470964242099342</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3730047803602119</v>
+        <v>0.5981567683442464</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.441386929411664</v>
+        <v>3.26007262324768</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5071228427804613</v>
+        <v>1.392058618541682</v>
       </c>
       <c r="C22">
-        <v>0.09772178026059919</v>
+        <v>0.2602993286096762</v>
       </c>
       <c r="D22">
-        <v>0.666954786317433</v>
+        <v>0.6373933870756616</v>
       </c>
       <c r="E22">
-        <v>0.2543539837582571</v>
+        <v>0.2182976312140923</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002501344853788459</v>
+        <v>0.0008065069698953926</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.070366978768874</v>
+        <v>0.5810418791739025</v>
       </c>
       <c r="J22">
-        <v>0.1196329847597468</v>
+        <v>0.08552080827865183</v>
       </c>
       <c r="K22">
-        <v>0.5803437607908393</v>
+        <v>1.582210416594108</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3838017109604053</v>
+        <v>0.6422795739311127</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.439465785360142</v>
+        <v>3.343061658646661</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4925116742747946</v>
+        <v>1.339913339604152</v>
       </c>
       <c r="C23">
-        <v>0.09508084177537057</v>
+        <v>0.2504052050425827</v>
       </c>
       <c r="D23">
-        <v>0.6633649083622402</v>
+        <v>0.6183664088981686</v>
       </c>
       <c r="E23">
-        <v>0.2533214015403971</v>
+        <v>0.2122347520836243</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002502432122132683</v>
+        <v>0.0008084140568747028</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.071783568898773</v>
+        <v>0.5774650470213487</v>
       </c>
       <c r="J23">
-        <v>0.1193809597332205</v>
+        <v>0.08352420200228039</v>
       </c>
       <c r="K23">
-        <v>0.5638610961230768</v>
+        <v>1.522753381774464</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.378027502949088</v>
+        <v>0.6186762822289325</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.440292008595691</v>
+        <v>3.29813331244452</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4373164996625292</v>
+        <v>1.143787883491143</v>
       </c>
       <c r="C24">
-        <v>0.08511386875265714</v>
+        <v>0.213295300620203</v>
       </c>
       <c r="D24">
-        <v>0.6502785975630161</v>
+        <v>0.5479302625635398</v>
       </c>
       <c r="E24">
-        <v>0.2496036195726887</v>
+        <v>0.1898707929459533</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002506712389513582</v>
+        <v>0.0008157568159394915</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.077979038189014</v>
+        <v>0.5663599079446797</v>
       </c>
       <c r="J24">
-        <v>0.1185146700240622</v>
+        <v>0.07622444120688243</v>
       </c>
       <c r="K24">
-        <v>0.5016090639059314</v>
+        <v>1.299257691938294</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3564161119252702</v>
+        <v>0.5304044853829808</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.447795266282583</v>
+        <v>3.141421850462734</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3780990086581255</v>
+        <v>0.9345089288693202</v>
       </c>
       <c r="C25">
-        <v>0.07443969394674355</v>
+        <v>0.173876324547706</v>
       </c>
       <c r="D25">
-        <v>0.6372558443663081</v>
+        <v>0.4749739916389046</v>
       </c>
       <c r="E25">
-        <v>0.2460067093051315</v>
+        <v>0.1668644693709744</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002511678665681184</v>
+        <v>0.0008239567915309218</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.086434730374492</v>
+        <v>0.5590853902349409</v>
       </c>
       <c r="J25">
-        <v>0.1177689480038531</v>
+        <v>0.06884332553079986</v>
       </c>
       <c r="K25">
-        <v>0.4348466552424668</v>
+        <v>1.061000960640058</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.333660230542975</v>
+        <v>0.4371852553876749</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.465230015596035</v>
+        <v>2.998036038298267</v>
       </c>
     </row>
   </sheetData>
